--- a/DESI Systems.xlsx
+++ b/DESI Systems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local\Akshay Laptop Backup 29Dec2019\Imperial\MSci Project\DESI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E78D25D-9169-4190-A347-E54812B5DFEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F83E1F-B968-4D10-9BC0-718EDE5D99FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BACEF7EA-2B45-4F48-94C8-2C3815C178CE}"/>
+    <workbookView minimized="1" xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{BACEF7EA-2B45-4F48-94C8-2C3815C178CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear H-alpha" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,138 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7902CBD9-A4E0-414C-B967-7A6F1B14A80C}</author>
+    <author>tc={7CE15651-F6C6-434E-A9D5-25D2BE71A6EF}</author>
+    <author>tc={5BD63E3C-739C-43DC-BC05-14FA82A24BCF}</author>
+    <author>tc={0BD489CB-1D41-4EBD-B61D-891634E1F982}</author>
+    <author>tc={0AC57711-7A42-4FBF-A64C-16344D24F532}</author>
+    <author>tc={D88E1902-A452-4B3F-98AE-B8FCD682BE53}</author>
+    <author>tc={37B95A0C-BF70-426B-A220-17C58767A95B}</author>
+    <author>tc={FD2FC993-3E2A-4437-9478-6833EBFDC0C7}</author>
+    <author>tc={103F9A06-577B-4E72-A9F0-60C1DC94E076}</author>
+    <author>tc={0B464397-7C10-48CD-8503-59FC696B4FC2}</author>
+    <author>tc={A60824FF-50BB-4EE7-8893-E53F5A03B1EA}</author>
+    <author>tc={DDBF2E23-A69B-4079-AC51-0543A4AD7017}</author>
+    <author>tc={E051BB34-5D24-44A5-BC85-9800949D70B6}</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{7902CBD9-A4E0-414C-B967-7A6F1B14A80C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Might want to double check</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{7CE15651-F6C6-434E-A9D5-25D2BE71A6EF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Are there 5 splits here?</t>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="2" shapeId="0" xr:uid="{5BD63E3C-739C-43DC-BC05-14FA82A24BCF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Need to double check by extending both the left and right cut regions
+Reply:
+    Have checked - are there 5 splits here?</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="3" shapeId="0" xr:uid="{0BD489CB-1D41-4EBD-B61D-891634E1F982}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Might want to try quad; approaching high fields</t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="4" shapeId="0" xr:uid="{0AC57711-7A42-4FBF-A64C-16344D24F532}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fit is a bit sketchy</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="5" shapeId="0" xr:uid="{D88E1902-A452-4B3F-98AE-B8FCD682BE53}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Almost certainly quad</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="6" shapeId="0" xr:uid="{37B95A0C-BF70-426B-A220-17C58767A95B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fit is a bit sketchy
+Reply:
+    Slightly possibility for quad; need confirmation</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="7" shapeId="0" xr:uid="{FD2FC993-3E2A-4437-9478-6833EBFDC0C7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fit seems fine but double check (amplitude for left might be a bit low)</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="8" shapeId="0" xr:uid="{103F9A06-577B-4E72-A9F0-60C1DC94E076}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fit looks ok but think left peak might be a bit misaligned/low intensity</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="9" shapeId="0" xr:uid="{0B464397-7C10-48CD-8503-59FC696B4FC2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Bit unsure of fit; see corresponding image</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="10" shapeId="0" xr:uid="{A60824FF-50BB-4EE7-8893-E53F5A03B1EA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fit seems ok, double check with image, potentially quad</t>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="11" shapeId="0" xr:uid="{DDBF2E23-A69B-4079-AC51-0543A4AD7017}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fit seems fine but very small separation so double check</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="12" shapeId="0" xr:uid="{E051BB34-5D24-44A5-BC85-9800949D70B6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Again fit seems fine, but very small separation so double check</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>System</t>
   </si>
@@ -259,13 +389,173 @@
   </si>
   <si>
     <t>DESI_WDJ190335.09+612115.65</t>
+  </si>
+  <si>
+    <r>
+      <t>∆λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (MG)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (MG)</t>
+    </r>
+  </si>
+  <si>
+    <t>∆λ</t>
+  </si>
+  <si>
+    <t>B (MG)</t>
+  </si>
+  <si>
+    <t>Lorentzian Fit via Separation</t>
+  </si>
+  <si>
+    <t>Error (∆λ)</t>
+  </si>
+  <si>
+    <t>Error (B)</t>
+  </si>
+  <si>
+    <t>Lorentzian Fitting via B</t>
+  </si>
+  <si>
+    <t>Voigt Fitting via B</t>
+  </si>
+  <si>
+    <r>
+      <t>∆λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Error (λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Res SS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DESI_WDJ022723.13-055305.72</t>
+  </si>
+  <si>
+    <t>DESI_WDJ022723.13-055305.72_bin0p2.dat</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +565,27 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,8 +611,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,6 +640,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Robert Raja" id="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" userId="S::rr3@soton.ac.uk::2044b915-0ce4-428a-b3d1-b7c1378251be" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,355 +943,900 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B6" dT="2021-11-08T15:52:46.02" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{7902CBD9-A4E0-414C-B967-7A6F1B14A80C}">
+    <text>Might want to double check</text>
+  </threadedComment>
+  <threadedComment ref="B8" dT="2021-11-08T17:06:15.73" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{7CE15651-F6C6-434E-A9D5-25D2BE71A6EF}">
+    <text>Are there 5 splits here?</text>
+  </threadedComment>
+  <threadedComment ref="M8" dT="2021-11-06T19:55:53.98" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{5BD63E3C-739C-43DC-BC05-14FA82A24BCF}">
+    <text>Need to double check by extending both the left and right cut regions</text>
+  </threadedComment>
+  <threadedComment ref="M8" dT="2021-11-08T15:27:18.17" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{EE78A515-55DF-43EC-A561-0CB758018E61}" parentId="{5BD63E3C-739C-43DC-BC05-14FA82A24BCF}">
+    <text>Have checked - are there 5 splits here?</text>
+  </threadedComment>
+  <threadedComment ref="B9" dT="2021-11-08T15:59:32.23" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{0BD489CB-1D41-4EBD-B61D-891634E1F982}">
+    <text>Might want to try quad; approaching high fields</text>
+  </threadedComment>
+  <threadedComment ref="B11" dT="2021-11-08T16:25:38.88" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{0AC57711-7A42-4FBF-A64C-16344D24F532}">
+    <text>Fit is a bit sketchy</text>
+  </threadedComment>
+  <threadedComment ref="B13" dT="2021-11-08T18:35:48.28" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{D88E1902-A452-4B3F-98AE-B8FCD682BE53}">
+    <text>Almost certainly quad</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2021-11-08T20:33:31.88" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{37B95A0C-BF70-426B-A220-17C58767A95B}">
+    <text>Fit is a bit sketchy</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2021-11-08T20:34:44.90" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{ABECFC7F-944C-40A5-B564-E94E930F4B12}" parentId="{37B95A0C-BF70-426B-A220-17C58767A95B}">
+    <text>Slightly possibility for quad; need confirmation</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2021-11-08T20:43:41.46" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{FD2FC993-3E2A-4437-9478-6833EBFDC0C7}">
+    <text>Fit seems fine but double check (amplitude for left might be a bit low)</text>
+  </threadedComment>
+  <threadedComment ref="B16" dT="2021-11-08T21:16:49.68" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{103F9A06-577B-4E72-A9F0-60C1DC94E076}">
+    <text>Fit looks ok but think left peak might be a bit misaligned/low intensity</text>
+  </threadedComment>
+  <threadedComment ref="B20" dT="2021-11-08T22:04:44.78" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{0B464397-7C10-48CD-8503-59FC696B4FC2}">
+    <text>Bit unsure of fit; see corresponding image</text>
+  </threadedComment>
+  <threadedComment ref="B21" dT="2021-11-08T22:11:09.04" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{A60824FF-50BB-4EE7-8893-E53F5A03B1EA}">
+    <text>Fit seems ok, double check with image, potentially quad</text>
+  </threadedComment>
+  <threadedComment ref="B22" dT="2021-11-08T22:27:16.42" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{DDBF2E23-A69B-4079-AC51-0543A4AD7017}">
+    <text>Fit seems fine but very small separation so double check</text>
+  </threadedComment>
+  <threadedComment ref="B23" dT="2021-11-08T22:32:27.32" personId="{25F0FD12-895E-436A-8964-D7FE6ACB773E}" id="{E051BB34-5D24-44A5-BC85-9800949D70B6}">
+    <text>Again fit seems fine, but very small separation so double check</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60CFEFE-18D8-4E31-A5CC-D33A5C3C028E}">
-  <dimension ref="A2:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60CFEFE-18D8-4E31-A5CC-D33A5C3C028E}">
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="9" width="15.6328125" customWidth="1"/>
-    <col min="11" max="11" width="37.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="27.6328125" style="2" customWidth="1"/>
+    <col min="3" max="9" width="15.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="2"/>
+    <col min="11" max="11" width="37.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="2"/>
+    <col min="13" max="22" width="9.6328125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="X1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="M2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="M3" s="2">
+        <v>43.602499435896704</v>
+      </c>
+      <c r="N3" s="2">
+        <v>41.849033034012699</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.1585395760344901</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2.0717343086144901</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2.1171655700000001</v>
+      </c>
+      <c r="S3" s="3">
+        <v>6562.8796558499998</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="W3" s="3">
+        <v>4.3452651882748796</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3">
+        <v>2.11756747</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>6562.84137551</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>4.3447521531497504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="M4" s="2">
+        <v>26.993350744822202</v>
+      </c>
+      <c r="N4" s="2">
+        <v>27.331343799053599</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.3363044923179299</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.3530368217353299</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1.34360637</v>
+      </c>
+      <c r="S4" s="3">
+        <v>6566.5519389399997</v>
+      </c>
+      <c r="U4" s="3">
+        <v>8.0099999999999998E-3</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2.04855818744791</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3">
+        <v>1.3435936399999999</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>6566.5515991900002</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>2.0485582154227902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="M5" s="2">
+        <v>37.388237199849698</v>
+      </c>
+      <c r="N5" s="2">
+        <v>36.329970036839697</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.8509028316757301</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1.79851336816038</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="Y5" s="3">
+        <v>1.8232438</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>6565.5511582199997</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>7.92E-3</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.799232893009726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="M6" s="2">
+        <v>19.576548141305398</v>
+      </c>
+      <c r="N6" s="2">
+        <v>19.579675335901801</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.96913604659927999</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.96929085821296102</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.94018531000000005</v>
+      </c>
+      <c r="S6" s="3">
+        <v>6566.14829706</v>
+      </c>
+      <c r="U6" s="3">
+        <v>9.7099999999999999E-3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.49579325930298801</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.93005985000000002</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>6566.2023351300004</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.49477737048160703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="M7" s="2">
+        <v>60.4693745919921</v>
+      </c>
+      <c r="N7" s="2">
+        <v>60.752662138085697</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.99353339564317</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.0075575315883998</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3.0115755499999999</v>
+      </c>
+      <c r="S7" s="3">
+        <v>6562.5367749200004</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.72370560603408496</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3.0115732999999998</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>6562.5367618199998</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="M8" s="2">
+        <v>81.745176197248796</v>
+      </c>
+      <c r="N8" s="2">
+        <v>81.845869666482002</v>
+      </c>
+      <c r="O8" s="2">
+        <v>4.0467909008538996</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4.0517757260634601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="M9" s="2">
+        <v>123.799134443573</v>
+      </c>
+      <c r="N9" s="2">
+        <v>160.84159599870301</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6.12867002195906</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7.9624552474605501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="M10" s="2">
+        <v>32.865640253016799</v>
+      </c>
+      <c r="N10" s="2">
+        <v>33.961119816445702</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.6270118937136999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.6812435552695899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="M11" s="2">
+        <v>15.6397264549987</v>
+      </c>
+      <c r="N11" s="2">
+        <v>16.440565724315</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.77424388391082699</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.81388939229282597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="M12" s="2">
+        <v>19.433916625519402</v>
+      </c>
+      <c r="N12" s="2">
+        <v>20.073699094859801</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.962075080471261</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.99374747994355805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="M13" s="2">
+        <v>251.59604541363399</v>
+      </c>
+      <c r="N13" s="2">
+        <v>254.59636250522701</v>
+      </c>
+      <c r="O13" s="2">
+        <v>12.4552497729522</v>
+      </c>
+      <c r="P13" s="2">
+        <v>12.603780322040899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="M14" s="2">
+        <v>89.588654314462403</v>
+      </c>
+      <c r="N14" s="2">
+        <v>84.049635755522999</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4.4350818967555599</v>
+      </c>
+      <c r="P14" s="2">
+        <v>4.1608730572040997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="M15" s="2">
+        <v>16.0802617115259</v>
+      </c>
+      <c r="N15" s="2">
+        <v>14.1227046662597</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.79605255997653201</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.69914379535939497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="M16" s="2">
+        <v>16.083207676220798</v>
+      </c>
+      <c r="N16" s="2">
+        <v>14.136561967190501</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.79619839981291096</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.69982980035596898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="M17" s="2">
+        <v>80.313021046183096</v>
+      </c>
+      <c r="N17" s="2">
+        <v>80.332912712409694</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3.9758921309991599</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3.97687686695097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="M18" s="2">
+        <v>45.787839968059401</v>
+      </c>
+      <c r="N18" s="2">
+        <v>43.877779145849601</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2.26672475089403</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2.1721672844479998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="M19" s="2">
+        <v>29.501148069363801</v>
+      </c>
+      <c r="N19" s="2">
+        <v>30.277284244949399</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1.46045287472098</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.4988754576707599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="M20" s="2">
+        <v>58.637507915414901</v>
+      </c>
+      <c r="N20" s="2">
+        <v>59.574591642241103</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2.9028469265056902</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2.9492372100119302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="M21" s="2">
+        <v>123.743817130534</v>
+      </c>
+      <c r="N21" s="2">
+        <v>123.31877189417</v>
+      </c>
+      <c r="O21" s="2">
+        <v>6.1259315411155804</v>
+      </c>
+      <c r="P21" s="2">
+        <v>6.1048896977312204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="M22" s="2">
+        <v>11.8769134659996</v>
+      </c>
+      <c r="N22" s="2">
+        <v>11.348783742078</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.58796601316829999</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.561820977330594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="M23" s="2">
+        <v>24.836282060176</v>
+      </c>
+      <c r="N23" s="2">
+        <v>20.944689627767701</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1.2295189138700999</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1.03686582315681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>